--- a/gitlab_about_page.xlsx
+++ b/gitlab_about_page.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,31 +453,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Behind the scenes of The DevSecOps Platform</t>
+          <t>GitLab 17 &amp; the future of AI-driven development</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>What we do</t>
+          <t>General</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>We're the company behind GitLab, the most comprehensive DevSecOps platform.</t>
+          <t>Behind the scenes of The DevSecOps Platform</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>What we do</t>
+          <t>General</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What started in 2011 as an open source project to help one team of programmers collaborate is now the platform millions of people use to deliver software faster, more efficiently, while strengthening security and compliance.</t>
+          <t>Behind the scenes of The DevSecOps Platform</t>
         </is>
       </c>
     </row>
@@ -489,337 +489,449 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Since the beginning, we've been firm believers in remote work, open source, DevSecOps, and iteration. We get up and log on in the morning (or whenever we choose to start our days) to work alongside the GitLab community to deliver new innovations every month that help teams focus on shipping great code faster, not their toolchain.</t>
+          <t>We're the company behind GitLab, the most comprehensive DevSecOps platform.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GitLab by the numbers</t>
+          <t>What we do</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Codecontributors</t>
+          <t>We're the company behind GitLab, the most comprehensive DevSecOps platform.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3,300+</t>
+          <t>What we do</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OfficesAll-remote since inception</t>
+          <t>What started in 2011 as an open source project to help one team of programmers collaborate is now the platform millions of people use to deliver software faster, more efficiently, while strengthening security and compliance.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>What we do</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Consecutive releasesevery month</t>
+          <t>Since the beginning, we've been firm believers in remote work, open source, DevSecOps, and iteration. We get up and log on in the morning (or whenever we choose to start our days) to work alongside the GitLab community to deliver new innovations every month that help teams focus on shipping great code faster, not their toolchain.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>GitLab by the numbers</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Team membersin 60+ countries</t>
+          <t>Codecontributors</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1,800+</t>
+          <t>GitLab by the numbers</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Estimated registered users</t>
+          <t>Code</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Over 30 million</t>
+          <t>GitLab by the numbers</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>From planning to production,bring teams together in one application</t>
+          <t>contributors</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GitLab's mission</t>
+          <t>3,300+</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Our mission is to enable everyone to contribute and co-create the software that powers our world.</t>
+          <t>OfficesAll-remote since inception</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Collaboration</t>
+          <t>3,300+</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>We prioritize things that help us work together effectively, such as assuming positive intent, saying “thanks” and “sorry,” and giving timely feedback.</t>
+          <t>Offices</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Results for Customers</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>We operate with a sense of urgency and bias for action and we do what we promise because we exist to help our customers achieve more.</t>
+          <t>Consecutive releasesevery month</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>From choosing boring solutions to documenting everything and being managers of one, we strive to make fast progress on the right things.</t>
+          <t>Consecutive releases</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Diversity, Inclusion, &amp; Belonging</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>We work to ensure GitLab is a place where people from every background and circumstance feel like they belong and can thrive.</t>
+          <t>Team membersin 60+ countries</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Iteration</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>We aim to do the smallest viable and valuable thing, and get it out quickly for feedback.</t>
+          <t>Team members</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Transparency</t>
+          <t>1,800+</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Everything we do is public by default, from our company handbook to the issue trackers for our product.</t>
+          <t>Estimated registered users</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1,800+</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The GitLab project began with a commit</t>
+          <t>Estimated registered users</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Over 30 million</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>We started releasing a new version of GitLab on the 22nd of every month</t>
+          <t>From planning to production,bring teams together in one application</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>The first version of GitLab CI is created</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>GitLab's mission</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GitLab is incorporated</t>
+          <t>Our mission is to enable everyone to contribute and co-create the software that powers our world.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>Collaboration</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Joined Y Combinator and published the GitLab Handbook to our website repository</t>
+          <t>We prioritize things that help us work together effectively, such as assuming positive intent, saying “thanks” and “sorry,” and giving timely feedback.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>Results for Customers</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Announced our master plan and raised $20 million in B round financing</t>
+          <t>We operate with a sense of urgency and bias for action and we do what we promise because we exist to help our customers achieve more.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>Efficiency</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GitLab Inc. became a publicly traded company on the Nasdaq Global Market (NASDAQ: GTLB)</t>
+          <t>From choosing boring solutions to documenting everything and being managers of one, we strive to make fast progress on the right things.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Working at GitLab</t>
+          <t>Diversity, Inclusion, &amp; Belonging</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>We strive to create an all-remote environment where all team members around the world can show up as their full selves, contribute their best, feel their voices are heard and welcomed, and truly prioritize work-life balance.</t>
+          <t>We work to ensure GitLab is a place where people from every background and circumstance feel like they belong and can thrive.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Working at GitLab</t>
+          <t>Iteration</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>If you're interested in being a part of the team, we invite you tolearn more about working at GitLaband apply to any open positions that look like a good fit.</t>
+          <t>We aim to do the smallest viable and valuable thing, and get it out quickly for feedback.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Better teams. Faster progress. Better world.</t>
+          <t>Transparency</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TeamOps is GitLab's unique people practice which makes teamwork an objective discipline. It's how GitLab scaled from a startup to a global public company in a decade. Through a free and accessible practitioner certification, other organizations can leverage TeamOps to make better decisions, deliver results, and move our world forward.</t>
+          <t>Everything we do is public by default, from our company handbook to the issue trackers for our product.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Learn more</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Blog</t>
+          <t>The GitLab project began with a commit</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>See what's new with GitLab, DevOps, security, and more.</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Press room</t>
+          <t>We started releasing a new version of GitLab on the 22nd of every month</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Recent news, press releases, and our press kit.</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Investor relations</t>
+          <t>The first version of GitLab CI is created</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Take GitLab for a spin</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>See what your team can do with a single platform for software delivery.</t>
+          <t>GitLab is incorporated</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Joined Y Combinator and published the GitLab Handbook to our website repository</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Announced our master plan and raised $20 million in B round financing</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>GitLab Inc. became a publicly traded company on the Nasdaq Global Market (NASDAQ: GTLB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Working at GitLab</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>We strive to create an all-remote environment where all team members around the world can show up as their full selves, contribute their best, feel their voices are heard and welcomed, and truly prioritize work-life balance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Working at GitLab</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>If you're interested in being a part of the team, we invite you tolearn more about working at GitLaband apply to any open positions that look like a good fit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Better teams. Faster progress. Better world.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TeamOps is GitLab's unique people practice which makes teamwork an objective discipline. It's how GitLab scaled from a startup to a global public company in a decade. Through a free and accessible practitioner certification, other organizations can leverage TeamOps to make better decisions, deliver results, and move our world forward.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Learn more</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Blog</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>See what's new with GitLab, DevOps, security, and more.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Press room</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Recent news, press releases, and our press kit.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Investor relations</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Take GitLab for a spin</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>See what your team can do with a single platform for software delivery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Take GitLab for a spin</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Have a question? We're here to help.</t>
         </is>
